--- a/data-raw/metadata/delta_entry_recapture_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C43B39-D11A-0D4A-BBAD-89B2512FBBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7F26C-5BE4-F840-9D3D-C5BC35DF58CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>whole</t>
   </si>
   <si>
-    <t>Whether the count (n) is an actual count or estimate. Levels = c("Yes", "No")</t>
-  </si>
-  <si>
     <t>visitTime</t>
   </si>
   <si>
@@ -205,55 +202,58 @@
     <t>recapture</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 12</t>
-  </si>
-  <si>
-    <t>Lower Feather River RST</t>
-  </si>
-  <si>
-    <t>Common name of species. Level = "Chinook salmon"</t>
-  </si>
-  <si>
-    <t>Run as assigned at the time of the capture. Levels = c("Not recorded", "Fall")</t>
-  </si>
-  <si>
-    <t>Run revised after field visit. Levels = c("Not recorded", "Fall")</t>
-  </si>
-  <si>
-    <t>Origin/production type of the fish. Levels = c("Natural", "Hatchery")</t>
-  </si>
-  <si>
-    <t>Life stage of the fish. Levels = c("Not recorded", "Parr")</t>
-  </si>
-  <si>
-    <t>Work that was done during visit to trap. Levels =c("Continue trapping", "Unplanned restart")</t>
-  </si>
-  <si>
-    <t>Name of the sampling site. Level  = "Lower Feather River RST"</t>
-  </si>
-  <si>
-    <t>Name of the trap or trap location. Levels = c("RL", "RR")</t>
-  </si>
-  <si>
-    <t>type of mark on fish. Level = "Pigment / dye"</t>
-  </si>
-  <si>
-    <t>color of mark on fish. Level = "Brown"</t>
-  </si>
-  <si>
-    <t>position of mark on body of fish. Level = "whole body"</t>
-  </si>
-  <si>
     <t>mort</t>
-  </si>
-  <si>
-    <t>Mortality. Levels = c("Yes", "No")</t>
   </si>
   <si>
     <t>actualCountID</t>
   </si>
   <si>
     <t>Number corresponding to actualCount value</t>
+  </si>
+  <si>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 10.</t>
+  </si>
+  <si>
+    <t>Delta Entry RST</t>
+  </si>
+  <si>
+    <t>Common name of species.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run as assigned at the time of the capture. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run revised after field visit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin/production type of the fish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life stage of the fish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality. </t>
+  </si>
+  <si>
+    <t>Whether the count (n) is an actual count or estimate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work that was done during visit to trap. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the sampling site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the trap or trap location. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type of mark on fish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">color of mark on fish. </t>
+  </si>
+  <si>
+    <t>position of mark on body of fish.</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,13 +647,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -691,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -729,7 +729,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -761,13 +761,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -805,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -834,16 +834,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -872,16 +872,16 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -913,13 +913,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -951,13 +951,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -986,16 +986,16 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -1024,16 +1024,16 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -1071,7 +1071,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
@@ -1080,7 +1080,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>31</v>
@@ -1119,7 +1119,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
@@ -1128,7 +1128,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
@@ -1167,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>36</v>
@@ -1185,10 +1185,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1244,34 +1244,30 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="6"/>
-      <c r="L17" s="11">
-        <v>44594.41678240741</v>
-      </c>
-      <c r="M17" s="11">
-        <v>44679.479571759257</v>
-      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1288,16 +1284,16 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -1326,16 +1322,16 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1364,16 +1360,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -1402,16 +1398,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -1440,16 +1436,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -1478,16 +1474,16 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>19</v>
@@ -1516,16 +1512,16 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>19</v>
@@ -28586,13 +28582,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28620,10 +28616,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_recapture_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA7F26C-5BE4-F840-9D3D-C5BC35DF58CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F931E95-5A0E-F848-A650-EB2360A1380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -169,12 +169,6 @@
     <t>markPosition</t>
   </si>
   <si>
-    <t>markCode</t>
-  </si>
-  <si>
-    <t>code identifying the type of mark</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>number of fish</t>
   </si>
   <si>
-    <t>atCaptureRun</t>
-  </si>
-  <si>
     <t>finalRun</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
   </si>
   <si>
     <t>recapture</t>
-  </si>
-  <si>
-    <t>mort</t>
   </si>
   <si>
     <t>actualCountID</t>
@@ -220,19 +208,7 @@
     <t>Common name of species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Run as assigned at the time of the capture. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run revised after field visit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin/production type of the fish. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Life stage of the fish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mortality. </t>
   </si>
   <si>
     <t>Whether the count (n) is an actual count or estimate.</t>
@@ -254,6 +230,12 @@
   </si>
   <si>
     <t>position of mark on body of fish.</t>
+  </si>
+  <si>
+    <t>Run revised after field visit. Level = "spring"</t>
+  </si>
+  <si>
+    <t>Origin/production type of the fish. Level = "hatchery"</t>
   </si>
 </sst>
 </file>
@@ -564,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,13 +629,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -691,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -729,7 +711,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -761,13 +743,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -805,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -834,16 +816,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -870,18 +852,18 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -908,18 +890,18 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -948,16 +930,16 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -986,28 +968,38 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1024,28 +1016,38 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1062,16 +1064,16 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
@@ -1080,10 +1082,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1110,38 +1112,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1158,180 +1150,170 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5" t="s">
+        <v>40</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -1360,16 +1342,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -1398,16 +1380,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -1435,21 +1417,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="12"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1473,21 +1445,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="13"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1511,21 +1473,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="12"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1549,7 +1501,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1577,7 +1529,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -1605,7 +1557,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -1633,7 +1585,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -2529,7 +2481,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -2557,7 +2509,7 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -2585,7 +2537,7 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -28456,106 +28408,22 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-      <c r="Y986" s="1"/>
-      <c r="Z986" s="1"/>
-    </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
-      <c r="P987" s="1"/>
-      <c r="Q987" s="1"/>
-      <c r="R987" s="1"/>
-      <c r="S987" s="1"/>
-      <c r="T987" s="1"/>
-      <c r="U987" s="1"/>
-      <c r="V987" s="1"/>
-      <c r="W987" s="1"/>
-      <c r="X987" s="1"/>
-      <c r="Y987" s="1"/>
-      <c r="Z987" s="1"/>
-    </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="1"/>
-      <c r="F988" s="3"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
-      <c r="I988" s="2"/>
-      <c r="J988" s="3"/>
-      <c r="K988" s="2"/>
-      <c r="L988" s="3"/>
-      <c r="M988" s="3"/>
-      <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
-      <c r="P988" s="1"/>
-      <c r="Q988" s="1"/>
-      <c r="R988" s="1"/>
-      <c r="S988" s="1"/>
-      <c r="T988" s="1"/>
-      <c r="U988" s="1"/>
-      <c r="V988" s="1"/>
-      <c r="W988" s="1"/>
-      <c r="X988" s="1"/>
-      <c r="Y988" s="1"/>
-      <c r="Z988" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C45:C988 C1:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C985 C1:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E988" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E985" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F988" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F985" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H988" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H985" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28582,13 +28450,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28619,7 +28487,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_recapture_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F931E95-5A0E-F848-A650-EB2360A1380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8464CCB-4076-C444-A1DD-0AE73DEA7F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t>Origin/production type of the fish. Level = "hatchery"</t>
+  </si>
+  <si>
+    <t>atCaptureRun</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>Run designation as determined in the field or as assigned at a later date. Levels = c("Not recorded", "Fall", "Spring", "Winter", "Late fall", "Not applicable (n/a)").</t>
+  </si>
+  <si>
+    <t>markCode</t>
+  </si>
+  <si>
+    <t>Code associated with tag</t>
   </si>
 </sst>
 </file>
@@ -546,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z986"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -816,16 +831,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -852,12 +867,12 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -890,12 +905,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -930,10 +945,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -968,38 +983,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1016,10 +1021,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>29</v>
@@ -1064,10 +1069,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
@@ -1082,10 +1087,10 @@
         <v>29</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
@@ -1112,28 +1117,38 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1150,68 +1165,68 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1228,10 +1243,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1242,34 +1257,34 @@
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1304,10 +1319,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1342,10 +1357,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1380,10 +1395,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1417,11 +1432,21 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1445,11 +1470,21 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1473,7 +1508,6 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1501,7 +1535,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1529,7 +1563,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -2481,7 +2515,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
+      <c r="A60" s="4"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -28408,22 +28442,49 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A986" s="1"/>
+      <c r="B986" s="1"/>
+      <c r="C986" s="1"/>
+      <c r="D986" s="2"/>
+      <c r="E986" s="1"/>
+      <c r="F986" s="3"/>
+      <c r="G986" s="3"/>
+      <c r="H986" s="3"/>
+      <c r="I986" s="2"/>
+      <c r="J986" s="3"/>
+      <c r="K986" s="2"/>
+      <c r="L986" s="3"/>
+      <c r="M986" s="3"/>
+      <c r="N986" s="1"/>
+      <c r="O986" s="1"/>
+      <c r="P986" s="1"/>
+      <c r="Q986" s="1"/>
+      <c r="R986" s="1"/>
+      <c r="S986" s="1"/>
+      <c r="T986" s="1"/>
+      <c r="U986" s="1"/>
+      <c r="V986" s="1"/>
+      <c r="W986" s="1"/>
+      <c r="X986" s="1"/>
+      <c r="Y986" s="1"/>
+      <c r="Z986" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+  <mergeCells count="1">
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C985 C1:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C1:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E985" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E986" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F985" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F986" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H985" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H986" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/delta_entry_recapture_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_recapture_metadata.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8464CCB-4076-C444-A1DD-0AE73DEA7F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2121BF-E693-D547-8A2F-1B7C3EDE9C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
     <sheet name="code_definitions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mj8SpPoT2aXglwYtGdIpSLFe4x2KQ=="/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -199,9 +210,6 @@
     <t>Number corresponding to actualCount value</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 10.</t>
-  </si>
-  <si>
     <t>Delta Entry RST</t>
   </si>
   <si>
@@ -247,10 +255,7 @@
     <t>Run designation as determined in the field or as assigned at a later date. Levels = c("Not recorded", "Fall", "Spring", "Winter", "Late fall", "Not applicable (n/a)").</t>
   </si>
   <si>
-    <t>markCode</t>
-  </si>
-  <si>
-    <t>Code associated with tag</t>
+    <t xml:space="preserve">Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 10. </t>
   </si>
 </sst>
 </file>
@@ -561,11 +566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -644,7 +649,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -758,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -831,16 +836,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -872,7 +877,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -910,7 +915,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -948,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -986,7 +991,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1246,7 +1251,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1284,7 +1289,7 @@
         <v>42</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1322,7 +1327,7 @@
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1360,7 +1365,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1398,7 +1403,7 @@
         <v>45</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1436,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
@@ -1470,21 +1475,10 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1508,6 +1502,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1535,7 +1530,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1563,7 +1558,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -2515,7 +2510,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -28442,49 +28437,21 @@
       <c r="Y985" s="1"/>
       <c r="Z985" s="1"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-      <c r="Y986" s="1"/>
-      <c r="Z986" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C1:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C985 C1:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E986" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E985" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F986" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F985" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H986" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H985" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28548,7 +28515,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/delta_entry_recapture_metadata.xlsx
+++ b/data-raw/metadata/delta_entry_recapture_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-delta-entry-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2121BF-E693-D547-8A2F-1B7C3EDE9C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012DB7A9-6598-5647-8B03-6BB990E7B9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -202,12 +202,6 @@
   </si>
   <si>
     <t>recapture</t>
-  </si>
-  <si>
-    <t>actualCountID</t>
-  </si>
-  <si>
-    <t>Number corresponding to actualCount value</t>
   </si>
   <si>
     <t>Delta Entry RST</t>
@@ -566,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z985"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -649,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -763,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -836,16 +830,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -877,7 +871,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -915,7 +909,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -953,7 +947,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -991,7 +985,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1170,68 +1164,68 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1248,10 +1242,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -1262,34 +1256,34 @@
       <c r="E17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1324,10 +1318,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
@@ -1362,10 +1356,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -1400,10 +1394,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
@@ -1437,21 +1431,10 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1475,6 +1458,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -1502,7 +1486,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1530,7 +1514,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -2482,7 +2466,7 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -28409,49 +28393,21 @@
       <c r="Y984" s="1"/>
       <c r="Z984" s="1"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
-      <c r="P985" s="1"/>
-      <c r="Q985" s="1"/>
-      <c r="R985" s="1"/>
-      <c r="S985" s="1"/>
-      <c r="T985" s="1"/>
-      <c r="U985" s="1"/>
-      <c r="V985" s="1"/>
-      <c r="W985" s="1"/>
-      <c r="X985" s="1"/>
-      <c r="Y985" s="1"/>
-      <c r="Z985" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C42:C985 C1:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C41:C984 C1:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E985" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E984" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F985" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F984" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H985" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H984" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28515,7 +28471,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
